--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>973012.1212210029</v>
+        <v>1008330.87654677</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914466</v>
+        <v>426806.9758914462</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.48847871</v>
+        <v>8362709.488478711</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9015678.150691891</v>
+        <v>9015678.150691889</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50.29171516770224</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,10 +706,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.13484214871499</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.2203122129984</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>207.0368788505634</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>86.94298968588913</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>45.76937707216953</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4655268502615</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.29171516770226</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,7 +1183,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.9262549931294</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>28.41964442677787</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,7 +1262,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="H10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>262.9667349180802</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>220.3634713899415</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>107.1270182415733</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>43.76331341951682</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>13.08993799274015</v>
+        <v>80.79258128802716</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>267.1896508015589</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>131.0870344152981</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,13 +1697,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>3.722778175975093</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>13.08993799274037</v>
+        <v>47.239591316294</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>387.3071780520778</v>
+        <v>197.8670455484101</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H18" t="n">
-        <v>100.8367104035704</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>153.9561866171905</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.7485187983275</v>
       </c>
       <c r="G20" t="n">
-        <v>72.03762288587251</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
@@ -2137,7 +2137,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>52.18293713757069</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
@@ -2216,7 +2216,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8957288909827</v>
+        <v>19.04449791804963</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>132.1304135414941</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>47.23959131629395</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>133.7749213862256</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S23" t="n">
-        <v>48.02317295119285</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>6.098631347229997</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.18674943245854</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>145.4297492889998</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>13.08993799274005</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>25.21144347425473</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>146.2164091277663</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>79.82222373250207</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951638</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>145.4297492889998</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>47.23959131629362</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4442482039093</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.19730008301789</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.4184586216305</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>100.8367104035699</v>
       </c>
       <c r="H30" t="n">
-        <v>65.90747854024133</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.9561866171904</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>47.47529300550303</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>74.05354577132783</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>94.29583255139839</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>43.76331341951638</v>
       </c>
       <c r="H33" t="n">
-        <v>35.33191364804552</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>92.22507712341779</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>150.3760341904041</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>111.4030392445282</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>68.39969274597632</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>76.82062015679189</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>108.2912514701844</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>89.2031333849559</v>
       </c>
     </row>
     <row r="37">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>90.20595867793514</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.1789736827619</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>90.4826706421273</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>247.8529275367983</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3596,10 +3596,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>104.4814346654892</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S39" t="n">
-        <v>154.0969082539765</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.8957288909827</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>132.2037233045427</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>204.7754144015326</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>36.1930871194693</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>131.6170830596124</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>96.33154135226421</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8957288909827</v>
+        <v>19.04449791804918</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>75.46056895511769</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>145.469269392824</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>276.0317507107358</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>275.0228875353691</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4067,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>3.722778175975093</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>35.33191364804597</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>141.605924235581</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.239591316294</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5536560184564</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D2" t="n">
-        <v>104.5536560184564</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E2" t="n">
-        <v>104.5536560184564</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F2" t="n">
-        <v>97.60815526925295</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G2" t="n">
-        <v>82.15084464790441</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>82.15084464790441</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>901.2946886937524</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C3" t="n">
-        <v>726.8416594126254</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D3" t="n">
-        <v>577.9072497513741</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E3" t="n">
-        <v>418.6697947459187</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F3" t="n">
         <v>272.1352367728036</v>
@@ -4418,7 +4418,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
         <v>542.809531908403</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.3588550364146</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4512,28 +4512,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>255.9366034337592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>255.9366034337592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>255.9366034337592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W5" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X5" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y5" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.0815197256143</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C6" t="n">
-        <v>413.6284904444873</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D6" t="n">
-        <v>413.6284904444873</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>254.3910354390318</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8564774659168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4722,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X8" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.5536560184564</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4895,7 +4895,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>384.2867411876791</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>384.2867411876791</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5264424227252</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="10">
@@ -4953,7 +4953,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
         <v>136.0777814360265</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1246.955840192009</v>
+        <v>1431.080203907159</v>
       </c>
       <c r="C11" t="n">
-        <v>877.9933232515971</v>
+        <v>1062.117686966747</v>
       </c>
       <c r="D11" t="n">
-        <v>877.9933232515971</v>
+        <v>1062.117686966747</v>
       </c>
       <c r="E11" t="n">
-        <v>877.9933232515971</v>
+        <v>1062.117686966747</v>
       </c>
       <c r="F11" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G11" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J11" t="n">
         <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T11" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U11" t="n">
-        <v>2187.207932640046</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V11" t="n">
-        <v>1856.145045296475</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="W11" t="n">
-        <v>1856.145045296475</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="X11" t="n">
-        <v>1856.145045296475</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="Y11" t="n">
-        <v>1633.55568025613</v>
+        <v>1431.080203907159</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439331</v>
+        <v>948.0498045074901</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7315422628061</v>
+        <v>773.5967752263631</v>
       </c>
       <c r="D12" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E12" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F12" t="n">
-        <v>93.02511962298431</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G12" t="n">
-        <v>93.02511962298431</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H12" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J12" t="n">
-        <v>81.93751399838828</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K12" t="n">
-        <v>318.2287647883253</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L12" t="n">
-        <v>697.3559079137186</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M12" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O12" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P12" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.04191212118968</v>
+        <v>130.4284205002675</v>
       </c>
       <c r="C13" t="n">
-        <v>62.04191212118968</v>
+        <v>130.4284205002675</v>
       </c>
       <c r="D13" t="n">
-        <v>62.04191212118968</v>
+        <v>130.4284205002675</v>
       </c>
       <c r="E13" t="n">
-        <v>62.04191212118968</v>
+        <v>130.4284205002675</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G13" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K13" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>351.4590821581503</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V13" t="n">
-        <v>351.4590821581503</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W13" t="n">
-        <v>62.04191212118968</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X13" t="n">
-        <v>62.04191212118968</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.04191212118968</v>
+        <v>130.4284205002675</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>567.019151004846</v>
+        <v>1246.955840192009</v>
       </c>
       <c r="C14" t="n">
-        <v>567.019151004846</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D14" t="n">
-        <v>567.019151004846</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E14" t="n">
-        <v>181.2308984066017</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F14" t="n">
-        <v>181.2308984066017</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G14" t="n">
-        <v>181.2308984066017</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
-        <v>181.2308984066017</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>1971.003775293977</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U14" t="n">
-        <v>1717.224081305859</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V14" t="n">
-        <v>1717.224081305859</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="W14" t="n">
-        <v>1717.224081305859</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="X14" t="n">
-        <v>1343.758323044779</v>
+        <v>1516.8443763552</v>
       </c>
       <c r="Y14" t="n">
-        <v>953.6189910689677</v>
+        <v>1516.8443763552</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>779.8344674874215</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>605.3814382062945</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>456.4470285450433</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>297.2095735395878</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F15" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G15" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H15" t="n">
         <v>48.81975253256327</v>
@@ -5357,52 +5357,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N15" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>948.0498045074896</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5469,13 +5469,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V16" t="n">
-        <v>351.4590821581505</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W16" t="n">
-        <v>62.04191212118991</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X16" t="n">
         <v>48.81975253256327</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1605.775798630602</v>
+        <v>606.9511537134654</v>
       </c>
       <c r="C17" t="n">
-        <v>1236.813281690191</v>
+        <v>606.9511537134654</v>
       </c>
       <c r="D17" t="n">
-        <v>1236.813281690191</v>
+        <v>248.6854551067149</v>
       </c>
       <c r="E17" t="n">
-        <v>851.0250290919464</v>
+        <v>248.6854551067149</v>
       </c>
       <c r="F17" t="n">
-        <v>440.0391243023388</v>
+        <v>248.6854551067149</v>
       </c>
       <c r="G17" t="n">
         <v>48.81975253256327</v>
@@ -5515,7 +5515,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K17" t="n">
         <v>412.307967997759</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T17" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U17" t="n">
-        <v>1936.838685974173</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V17" t="n">
-        <v>1605.775798630602</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W17" t="n">
-        <v>1605.775798630602</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X17" t="n">
-        <v>1605.775798630602</v>
+        <v>1383.690325753399</v>
       </c>
       <c r="Y17" t="n">
-        <v>1605.775798630602</v>
+        <v>993.5509937775871</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>779.8344674874215</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C18" t="n">
-        <v>605.3814382062945</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D18" t="n">
-        <v>456.4470285450433</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E18" t="n">
-        <v>297.2095735395878</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F18" t="n">
-        <v>150.6750155664728</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G18" t="n">
-        <v>150.6750155664728</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H18" t="n">
         <v>48.81975253256327</v>
@@ -5597,49 +5597,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L18" t="n">
-        <v>664.2381464478935</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N18" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O18" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U18" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V18" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W18" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X18" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y18" t="n">
-        <v>948.0498045074896</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C19" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D19" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E19" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O19" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>485.1268700674343</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>485.1268700674343</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V19" t="n">
-        <v>485.1268700674343</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W19" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X19" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y19" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>876.3357977135147</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="C20" t="n">
-        <v>507.373280773103</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="D20" t="n">
-        <v>507.373280773103</v>
+        <v>1096.986094088847</v>
       </c>
       <c r="E20" t="n">
-        <v>121.5850281748587</v>
+        <v>711.1978414906032</v>
       </c>
       <c r="F20" t="n">
-        <v>121.5850281748587</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G20" t="n">
         <v>48.81975253256327</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T20" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U20" t="n">
-        <v>1971.003775293977</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V20" t="n">
-        <v>1639.940887950406</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W20" t="n">
-        <v>1639.940887950406</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="X20" t="n">
-        <v>1266.475129689326</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="Y20" t="n">
-        <v>876.3357977135147</v>
+        <v>1455.251792695598</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C21" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D21" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E21" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F21" t="n">
-        <v>239.5596775960993</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G21" t="n">
-        <v>101.5297900452609</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H21" t="n">
-        <v>101.5297900452609</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C22" t="n">
         <v>48.81975253256327</v>
@@ -5934,28 +5934,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807582</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="U22" t="n">
-        <v>592.9214107754108</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="V22" t="n">
-        <v>338.2369225695239</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="W22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="X22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1214.556426860827</v>
+        <v>927.9998869559677</v>
       </c>
       <c r="C23" t="n">
-        <v>845.5939099204151</v>
+        <v>927.9998869559677</v>
       </c>
       <c r="D23" t="n">
-        <v>845.5939099204151</v>
+        <v>569.7341883492172</v>
       </c>
       <c r="E23" t="n">
-        <v>459.8056573221708</v>
+        <v>183.945935750973</v>
       </c>
       <c r="F23" t="n">
         <v>48.81975253256327</v>
@@ -5989,13 +5989,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K23" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2392.479371121908</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T23" t="n">
-        <v>2172.864766453595</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U23" t="n">
-        <v>1919.085072465477</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V23" t="n">
-        <v>1588.022185121907</v>
+        <v>2040.834140551283</v>
       </c>
       <c r="W23" t="n">
-        <v>1588.022185121907</v>
+        <v>1688.065485281169</v>
       </c>
       <c r="X23" t="n">
-        <v>1214.556426860827</v>
+        <v>1314.599727020089</v>
       </c>
       <c r="Y23" t="n">
-        <v>1214.556426860827</v>
+        <v>1314.599727020089</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>779.8344674874215</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C24" t="n">
-        <v>605.3814382062945</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D24" t="n">
         <v>599.2212045222238</v>
@@ -6068,16 +6068,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404814</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658747</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N24" t="n">
         <v>1557.865593173221</v>
@@ -6092,28 +6092,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2440.987626628164</v>
+        <v>2415.546465585276</v>
       </c>
       <c r="S24" t="n">
-        <v>2280.589895521037</v>
+        <v>2255.14873447815</v>
       </c>
       <c r="T24" t="n">
-        <v>2081.228572368206</v>
+        <v>2055.787411325319</v>
       </c>
       <c r="U24" t="n">
-        <v>1853.051068437921</v>
+        <v>1827.609907395033</v>
       </c>
       <c r="V24" t="n">
-        <v>1617.898960206178</v>
+        <v>1592.45779916329</v>
       </c>
       <c r="W24" t="n">
-        <v>1363.661603477976</v>
+        <v>1338.220442435089</v>
       </c>
       <c r="X24" t="n">
-        <v>1155.810103272443</v>
+        <v>1130.368942229556</v>
       </c>
       <c r="Y24" t="n">
-        <v>948.0498045074896</v>
+        <v>922.6086434646021</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C25" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D25" t="n">
-        <v>490.5215302684221</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E25" t="n">
-        <v>342.608436686029</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F25" t="n">
-        <v>195.7184891881186</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
         <v>48.81975253256327</v>
@@ -6180,19 +6180,19 @@
         <v>640.6381696807579</v>
       </c>
       <c r="U25" t="n">
-        <v>640.6381696807579</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="V25" t="n">
-        <v>640.6381696807579</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W25" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X25" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y25" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1962.231396731293</v>
+        <v>829.0366265906684</v>
       </c>
       <c r="C26" t="n">
-        <v>1593.268879790881</v>
+        <v>460.0741096502567</v>
       </c>
       <c r="D26" t="n">
-        <v>1593.268879790881</v>
+        <v>460.0741096502567</v>
       </c>
       <c r="E26" t="n">
-        <v>1207.480627192637</v>
+        <v>74.28585705201249</v>
       </c>
       <c r="F26" t="n">
-        <v>796.4947224030295</v>
+        <v>74.28585705201249</v>
       </c>
       <c r="G26" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H26" t="n">
         <v>48.81975253256326</v>
@@ -6226,13 +6226,13 @@
         <v>48.81975253256326</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977592</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628163</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628163</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628163</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T26" t="n">
-        <v>2440.987626628163</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U26" t="n">
-        <v>2293.294284074864</v>
+        <v>1936.838685974172</v>
       </c>
       <c r="V26" t="n">
-        <v>1962.231396731293</v>
+        <v>1605.775798630602</v>
       </c>
       <c r="W26" t="n">
-        <v>1962.231396731293</v>
+        <v>1605.775798630602</v>
       </c>
       <c r="X26" t="n">
-        <v>1962.231396731293</v>
+        <v>1605.775798630602</v>
       </c>
       <c r="Y26" t="n">
-        <v>1962.231396731293</v>
+        <v>1215.63646665479</v>
       </c>
     </row>
     <row r="27">
@@ -6284,16 +6284,16 @@
         <v>722.1845715439326</v>
       </c>
       <c r="C27" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628056</v>
       </c>
       <c r="D27" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015544</v>
       </c>
       <c r="E27" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960989</v>
       </c>
       <c r="F27" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298385</v>
       </c>
       <c r="G27" t="n">
         <v>48.81975253256326</v>
@@ -6305,25 +6305,25 @@
         <v>48.81975253256326</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256326</v>
+        <v>81.93751399838786</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225003</v>
+        <v>318.2287647883249</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478935</v>
+        <v>697.3559079137182</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O27" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628163</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="C28" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="D28" t="n">
-        <v>490.5215302684221</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E28" t="n">
-        <v>342.608436686029</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F28" t="n">
-        <v>195.7184891881186</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G28" t="n">
         <v>48.81975253256326</v>
@@ -6417,19 +6417,19 @@
         <v>640.6381696807579</v>
       </c>
       <c r="U28" t="n">
-        <v>640.6381696807579</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V28" t="n">
-        <v>640.6381696807579</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W28" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="X28" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="Y28" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256326</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>434.6080051308075</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="C29" t="n">
-        <v>434.6080051308075</v>
+        <v>914.7992684176359</v>
       </c>
       <c r="D29" t="n">
-        <v>434.6080051308075</v>
+        <v>556.5335698108854</v>
       </c>
       <c r="E29" t="n">
-        <v>48.81975253256326</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F29" t="n">
-        <v>48.81975253256326</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256326</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H29" t="n">
         <v>48.81975253256326</v>
@@ -6463,19 +6463,19 @@
         <v>48.81975253256326</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K29" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L29" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M29" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N29" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O29" t="n">
         <v>2037.925350935285</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628163</v>
       </c>
       <c r="S29" t="n">
-        <v>2351.899444726125</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="T29" t="n">
-        <v>2132.284840057811</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U29" t="n">
-        <v>1878.505146069694</v>
+        <v>1967.593327971732</v>
       </c>
       <c r="V29" t="n">
-        <v>1547.442258726123</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W29" t="n">
-        <v>1194.673603456009</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="X29" t="n">
-        <v>821.2078451949293</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="Y29" t="n">
-        <v>821.2078451949293</v>
+        <v>1283.761785358048</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>882.5823026510589</v>
+        <v>779.8344674874211</v>
       </c>
       <c r="C30" t="n">
-        <v>708.1292733699319</v>
+        <v>605.3814382062941</v>
       </c>
       <c r="D30" t="n">
-        <v>559.1948637086806</v>
+        <v>456.4470285450428</v>
       </c>
       <c r="E30" t="n">
-        <v>399.9574087032251</v>
+        <v>297.2095735395873</v>
       </c>
       <c r="F30" t="n">
-        <v>253.4228507301101</v>
+        <v>150.6750155664723</v>
       </c>
       <c r="G30" t="n">
-        <v>115.3929631792717</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H30" t="n">
         <v>48.81975253256326</v>
@@ -6542,52 +6542,52 @@
         <v>48.81975253256326</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404814</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>2158.207869599012</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2440.987626628163</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628163</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="S30" t="n">
-        <v>2383.337730684675</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T30" t="n">
-        <v>2183.976407531844</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U30" t="n">
-        <v>1955.798903601558</v>
+        <v>1853.05106843792</v>
       </c>
       <c r="V30" t="n">
-        <v>1720.646795369815</v>
+        <v>1617.898960206177</v>
       </c>
       <c r="W30" t="n">
-        <v>1466.409438641614</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X30" t="n">
-        <v>1258.557938436081</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y30" t="n">
-        <v>1050.797639671127</v>
+        <v>948.0498045074892</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="C31" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="D31" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E31" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F31" t="n">
         <v>48.81975253256326</v>
@@ -6651,22 +6651,22 @@
         <v>640.6381696807579</v>
       </c>
       <c r="T31" t="n">
-        <v>485.1268700674342</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U31" t="n">
-        <v>485.1268700674342</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="V31" t="n">
-        <v>485.1268700674342</v>
+        <v>96.7745939522633</v>
       </c>
       <c r="W31" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="X31" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="Y31" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256326</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>958.5909773069948</v>
+        <v>938.1442229836907</v>
       </c>
       <c r="C32" t="n">
-        <v>958.5909773069948</v>
+        <v>569.181706043279</v>
       </c>
       <c r="D32" t="n">
-        <v>958.5909773069948</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="E32" t="n">
-        <v>958.5909773069948</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="F32" t="n">
-        <v>958.5909773069948</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G32" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H32" t="n">
         <v>210.9160074365284</v>
@@ -6700,13 +6700,13 @@
         <v>48.81975253256326</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
@@ -6721,7 +6721,7 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R32" t="n">
         <v>2371.897027894854</v>
@@ -6730,22 +6730,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T32" t="n">
-        <v>1971.003775293977</v>
+        <v>1971.003775293976</v>
       </c>
       <c r="U32" t="n">
         <v>1717.224081305859</v>
       </c>
       <c r="V32" t="n">
-        <v>1386.161193962289</v>
+        <v>1386.161193962288</v>
       </c>
       <c r="W32" t="n">
         <v>1033.392538692174</v>
       </c>
       <c r="X32" t="n">
-        <v>958.5909773069948</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="Y32" t="n">
-        <v>958.5909773069948</v>
+        <v>938.1442229836907</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>779.8344674874211</v>
+        <v>722.1845715439326</v>
       </c>
       <c r="C33" t="n">
-        <v>605.3814382062941</v>
+        <v>547.7315422628056</v>
       </c>
       <c r="D33" t="n">
-        <v>456.4470285450428</v>
+        <v>398.7971326015544</v>
       </c>
       <c r="E33" t="n">
-        <v>297.2095735395873</v>
+        <v>239.5596775960989</v>
       </c>
       <c r="F33" t="n">
-        <v>150.6750155664723</v>
+        <v>93.02511962298385</v>
       </c>
       <c r="G33" t="n">
-        <v>150.6750155664723</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256326</v>
@@ -6803,28 +6803,28 @@
         <v>2440.987626628163</v>
       </c>
       <c r="R33" t="n">
-        <v>2440.987626628163</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S33" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577548</v>
       </c>
       <c r="T33" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424717</v>
       </c>
       <c r="U33" t="n">
-        <v>1853.05106843792</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V33" t="n">
-        <v>1617.898960206177</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W33" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534487</v>
       </c>
       <c r="X33" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y33" t="n">
-        <v>948.0498045074892</v>
+        <v>890.3999085640007</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>458.9897048505181</v>
+        <v>336.0815073657978</v>
       </c>
       <c r="C34" t="n">
-        <v>458.9897048505181</v>
+        <v>336.0815073657978</v>
       </c>
       <c r="D34" t="n">
-        <v>365.8330612915103</v>
+        <v>336.0815073657978</v>
       </c>
       <c r="E34" t="n">
-        <v>217.9199677091171</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F34" t="n">
-        <v>217.9199677091171</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256326</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256326</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I34" t="n">
         <v>48.81975253256326</v>
@@ -6882,28 +6882,28 @@
         <v>640.6381696807579</v>
       </c>
       <c r="R34" t="n">
-        <v>640.6381696807579</v>
+        <v>487.976491396509</v>
       </c>
       <c r="S34" t="n">
-        <v>640.6381696807579</v>
+        <v>336.0815073657978</v>
       </c>
       <c r="T34" t="n">
-        <v>640.6381696807579</v>
+        <v>336.0815073657978</v>
       </c>
       <c r="U34" t="n">
-        <v>640.6381696807579</v>
+        <v>336.0815073657978</v>
       </c>
       <c r="V34" t="n">
-        <v>640.6381696807579</v>
+        <v>336.0815073657978</v>
       </c>
       <c r="W34" t="n">
-        <v>640.6381696807579</v>
+        <v>336.0815073657978</v>
       </c>
       <c r="X34" t="n">
-        <v>640.6381696807579</v>
+        <v>336.0815073657978</v>
       </c>
       <c r="Y34" t="n">
-        <v>640.6381696807579</v>
+        <v>336.0815073657978</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1327.084749330047</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C35" t="n">
-        <v>958.1222323896354</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D35" t="n">
-        <v>845.5939099204151</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E35" t="n">
-        <v>459.8056573221708</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F35" t="n">
-        <v>48.81975253256326</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G35" t="n">
         <v>48.81975253256326</v>
@@ -6937,19 +6937,19 @@
         <v>48.81975253256326</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O35" t="n">
         <v>2037.925350935285</v>
@@ -6964,25 +6964,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T35" t="n">
-        <v>1971.003775293976</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U35" t="n">
-        <v>1717.224081305859</v>
+        <v>2118.117333906736</v>
       </c>
       <c r="V35" t="n">
-        <v>1717.224081305859</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="W35" t="n">
-        <v>1717.224081305859</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="X35" t="n">
-        <v>1717.224081305859</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y35" t="n">
-        <v>1327.084749330047</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.7751048338188</v>
+        <v>839.8406951725675</v>
       </c>
       <c r="C36" t="n">
-        <v>814.3220755526918</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="D36" t="n">
         <v>665.3876658914405</v>
@@ -7016,25 +7016,25 @@
         <v>48.81975253256326</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404814</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.071214692449</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973757</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628163</v>
@@ -7061,7 +7061,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>1098.160207328955</v>
+        <v>1008.056032192635</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>458.9897048505181</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="C37" t="n">
-        <v>290.0535219226113</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D37" t="n">
-        <v>139.9368825102755</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E37" t="n">
-        <v>139.9368825102755</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F37" t="n">
         <v>48.81975253256326</v>
@@ -7122,25 +7122,25 @@
         <v>640.6381696807579</v>
       </c>
       <c r="S37" t="n">
-        <v>640.6381696807579</v>
+        <v>485.9119336375641</v>
       </c>
       <c r="T37" t="n">
-        <v>640.6381696807579</v>
+        <v>485.9119336375641</v>
       </c>
       <c r="U37" t="n">
-        <v>640.6381696807579</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="V37" t="n">
-        <v>640.6381696807579</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="W37" t="n">
-        <v>640.6381696807579</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="X37" t="n">
-        <v>640.6381696807579</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="Y37" t="n">
-        <v>640.6381696807579</v>
+        <v>196.7328461149564</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1369.576882096602</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="C38" t="n">
-        <v>1369.576882096602</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D38" t="n">
-        <v>1369.576882096602</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E38" t="n">
-        <v>1369.576882096602</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F38" t="n">
-        <v>958.5909773069948</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G38" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H38" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J38" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977593</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O38" t="n">
         <v>2037.925350935285</v>
@@ -7195,31 +7195,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q38" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T38" t="n">
-        <v>2349.590989615914</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U38" t="n">
-        <v>2095.811295627796</v>
+        <v>1940.261887500877</v>
       </c>
       <c r="V38" t="n">
-        <v>2095.811295627796</v>
+        <v>1609.199000157307</v>
       </c>
       <c r="W38" t="n">
-        <v>1743.042640357682</v>
+        <v>1609.199000157307</v>
       </c>
       <c r="X38" t="n">
-        <v>1369.576882096602</v>
+        <v>1235.733241896227</v>
       </c>
       <c r="Y38" t="n">
-        <v>1369.576882096602</v>
+        <v>845.5939099204151</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>784.5787559137638</v>
+        <v>921.5458946967638</v>
       </c>
       <c r="C39" t="n">
-        <v>610.1257266326368</v>
+        <v>747.0928654156368</v>
       </c>
       <c r="D39" t="n">
-        <v>461.1913169713854</v>
+        <v>598.1584557543855</v>
       </c>
       <c r="E39" t="n">
-        <v>301.9538619659299</v>
+        <v>438.92100074893</v>
       </c>
       <c r="F39" t="n">
-        <v>155.4193039928149</v>
+        <v>292.386442775815</v>
       </c>
       <c r="G39" t="n">
-        <v>155.4193039928149</v>
+        <v>154.3565552249766</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.041580881031</v>
+        <v>2158.207869599012</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q39" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R39" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2285.334183947379</v>
+        <v>2222.939999577548</v>
       </c>
       <c r="T39" t="n">
-        <v>2085.972860794548</v>
+        <v>2222.939999577548</v>
       </c>
       <c r="U39" t="n">
-        <v>1857.795356864263</v>
+        <v>1994.762495647263</v>
       </c>
       <c r="V39" t="n">
-        <v>1622.64324863252</v>
+        <v>1759.61038741552</v>
       </c>
       <c r="W39" t="n">
-        <v>1368.405891904318</v>
+        <v>1505.373030687319</v>
       </c>
       <c r="X39" t="n">
-        <v>1160.554391698786</v>
+        <v>1297.521530481786</v>
       </c>
       <c r="Y39" t="n">
-        <v>952.7940929338317</v>
+        <v>1089.761231716832</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>217.9199677091171</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C40" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="D40" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E40" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F40" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K40" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371199</v>
       </c>
       <c r="L40" t="n">
         <v>206.6297039190408</v>
@@ -7359,25 +7359,25 @@
         <v>640.6381696807579</v>
       </c>
       <c r="S40" t="n">
-        <v>507.0990552317248</v>
+        <v>424.5997883913112</v>
       </c>
       <c r="T40" t="n">
-        <v>507.0990552317248</v>
+        <v>424.5997883913112</v>
       </c>
       <c r="U40" t="n">
-        <v>217.9199677091171</v>
+        <v>424.5997883913112</v>
       </c>
       <c r="V40" t="n">
-        <v>217.9199677091171</v>
+        <v>424.5997883913112</v>
       </c>
       <c r="W40" t="n">
-        <v>217.9199677091171</v>
+        <v>424.5997883913112</v>
       </c>
       <c r="X40" t="n">
-        <v>217.9199677091171</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.9199677091171</v>
+        <v>217.7559354604702</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>854.6300297869711</v>
+        <v>1383.854442904611</v>
       </c>
       <c r="C41" t="n">
-        <v>854.6300297869711</v>
+        <v>1014.891925964199</v>
       </c>
       <c r="D41" t="n">
-        <v>496.3643311802206</v>
+        <v>1014.891925964199</v>
       </c>
       <c r="E41" t="n">
-        <v>496.3643311802206</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="F41" t="n">
-        <v>85.37842639061307</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G41" t="n">
-        <v>85.37842639061307</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I41" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J41" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977589</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
@@ -7432,31 +7432,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q41" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="S41" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.708978695599</v>
       </c>
       <c r="T41" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.708978695599</v>
       </c>
       <c r="U41" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.708978695599</v>
       </c>
       <c r="V41" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.708978695599</v>
       </c>
       <c r="W41" t="n">
-        <v>1618.235120023863</v>
+        <v>1906.940323425485</v>
       </c>
       <c r="X41" t="n">
-        <v>1244.769361762783</v>
+        <v>1773.993774880422</v>
       </c>
       <c r="Y41" t="n">
-        <v>854.6300297869711</v>
+        <v>1383.854442904611</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>850.7452172829803</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C42" t="n">
-        <v>676.2921880018533</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D42" t="n">
-        <v>527.3577783406021</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E42" t="n">
-        <v>368.1203233351466</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F42" t="n">
-        <v>221.5857653620315</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G42" t="n">
         <v>221.5857653620315</v>
@@ -7487,34 +7487,34 @@
         <v>114.9862139017798</v>
       </c>
       <c r="I42" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J42" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L42" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599012</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q42" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R42" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="S42" t="n">
         <v>2280.589895521037</v>
@@ -7523,19 +7523,19 @@
         <v>2081.228572368206</v>
       </c>
       <c r="U42" t="n">
-        <v>1853.051068437921</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V42" t="n">
-        <v>1617.898960206178</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W42" t="n">
-        <v>1363.661603477976</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X42" t="n">
-        <v>1155.810103272443</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y42" t="n">
-        <v>948.0498045074896</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>419.8455905372281</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="C43" t="n">
-        <v>419.8455905372281</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="D43" t="n">
-        <v>343.6227936128668</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="E43" t="n">
-        <v>195.7097000304736</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>493.7482221828475</v>
       </c>
       <c r="G43" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H43" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K43" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371199</v>
       </c>
       <c r="L43" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O43" t="n">
-        <v>573.6740222801511</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="V43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="W43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="X43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Y43" t="n">
-        <v>419.8455905372281</v>
+        <v>640.6381696807579</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>489.7359576493929</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="C44" t="n">
-        <v>489.7359576493929</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="D44" t="n">
-        <v>489.7359576493929</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="E44" t="n">
-        <v>210.9160074365284</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="F44" t="n">
-        <v>210.9160074365284</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G44" t="n">
-        <v>210.9160074365284</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H44" t="n">
         <v>210.9160074365284</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T44" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U44" t="n">
-        <v>1971.003775293977</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="V44" t="n">
-        <v>1639.940887950406</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="W44" t="n">
-        <v>1639.940887950406</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="X44" t="n">
-        <v>1266.475129689326</v>
+        <v>1728.12838820711</v>
       </c>
       <c r="Y44" t="n">
-        <v>876.3357977135147</v>
+        <v>1337.989056231298</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>297.2095735395878</v>
       </c>
       <c r="F45" t="n">
-        <v>293.4491915436533</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G45" t="n">
-        <v>155.4193039928149</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="H45" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>81.93751399838814</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>318.2287647883252</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>697.3559079137185</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="F46" t="n">
         <v>48.81975253256327</v>
@@ -7842,16 +7842,16 @@
         <v>640.6381696807582</v>
       </c>
       <c r="V46" t="n">
-        <v>385.9536814748714</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W46" t="n">
-        <v>96.53651143791075</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X46" t="n">
-        <v>96.53651143791075</v>
+        <v>412.6486187827409</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.81975253256327</v>
+        <v>191.8560396392108</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>94.72888660085718</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617152</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>362.5001705371775</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>245.6177531937813</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K21" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029009</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>289.3053491854101</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194305</v>
+        <v>94.72888660085678</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.85469562617064</v>
+        <v>51.40241131725698</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>287.1006199003853</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.40241131725698</v>
+        <v>84.85469562617064</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.3053491854091</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617064</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817929</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.85469562617109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928321</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>245.6177531937813</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817929</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>94.72888660085704</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>268.6397271670517</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>143.9093108236312</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>165.874467266112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>40.31804732306541</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>61.77024252613235</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>132.3311100301911</v>
+        <v>64.62846673490408</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23472,7 +23472,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>115.5441908619217</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>29.38825793962741</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>141.3464342174088</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
         <v>65.50479675552441</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>212.6197173962968</v>
+        <v>178.4700640727432</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>26.69861121805417</v>
+        <v>216.1387437217219</v>
       </c>
       <c r="H17" t="n">
         <v>326.1924309016296</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23825,10 +23825,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H18" t="n">
-        <v>4.69684554207879</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23943,13 +23943,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>71.50367393086282</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.1275269433839</v>
       </c>
       <c r="G20" t="n">
-        <v>341.9681663842595</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>13.32185961795372</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>206.8512309729331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,7 +24174,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
-        <v>151.1350615014064</v>
+        <v>19.00464795991226</v>
       </c>
       <c r="S22" t="n">
         <v>213.8779974765521</v>
@@ -24183,10 +24183,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>239.0477053310876</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>273.1011243554858</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>131.4426885020453</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>141.3464342174088</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>31.88664755159501</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>21.97946373578853</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
         <v>157.0547409226243</v>
@@ -24420,13 +24420,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>239.047705331088</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>388.7943457958772</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>105.0254879204699</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>92.88627525581367</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>92.88627525581362</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>21.9794637357885</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24657,13 +24657,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>239.047705331088</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>205.4861218683525</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24730,7 +24730,7 @@
         <v>68.39969274597632</v>
       </c>
       <c r="S29" t="n">
-        <v>91.26856137022025</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>35.81287827176006</v>
       </c>
       <c r="H30" t="n">
-        <v>39.62607740540784</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552442</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.4092130247883</v>
@@ -24891,16 +24891,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>71.50367393086287</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>239.047705331088</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>295.6775549071412</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>291.9421061046552</v>
       </c>
     </row>
     <row r="33">
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581362</v>
       </c>
       <c r="H33" t="n">
-        <v>70.20164229760366</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>56.39039589479457</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>52.22830032617344</v>
@@ -25122,10 +25122,10 @@
         <v>37.44704598407327</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>63.50196328614805</v>
       </c>
       <c r="T34" t="n">
         <v>225.4598605480533</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>243.2800023761548</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>250.931638313343</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>58.24193217968289</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>116.4795623923485</v>
       </c>
     </row>
     <row r="37">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>55.2150893449961</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
@@ -25362,13 +25362,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>60.69902379379027</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>126.9357879795032</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.388969511437921</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.052121280159966</v>
       </c>
       <c r="I39" t="n">
         <v>65.50479675552442</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>4.696845542078279</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25599,13 +25599,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>81.67427417200943</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>20.93424098750452</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>289.9993437821603</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
         <v>251.2418970482362</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>238.1140176188566</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>70.20164229760313</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>206.8512309729335</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25791,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>73.15490406309466</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>21.9399436319643</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>105.898619361526</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>94.70821314309995</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>141.3464342174088</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.2016422976032</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>3.815123787350245</v>
       </c>
       <c r="G46" t="n">
         <v>167.4092130247883</v>
@@ -26082,16 +26082,16 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.3450620358008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>698666.1304306858</v>
+        <v>698666.1304306861</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>698666.1304306861</v>
+        <v>698666.1304306859</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>698666.1304306861</v>
+        <v>698666.1304306858</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698666.1304306861</v>
+        <v>698666.1304306858</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>698666.1304306858</v>
+        <v>698666.1304306857</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>698666.1304306859</v>
+        <v>698666.1304306858</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>698666.1304306859</v>
+        <v>698666.1304306858</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>698666.1304306857</v>
+        <v>698666.1304306859</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>698666.1304306861</v>
+        <v>698666.1304306859</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>698666.1304306861</v>
+        <v>698666.1304306859</v>
       </c>
     </row>
   </sheetData>
@@ -26319,19 +26319,19 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>311813.7524761209</v>
+        <v>311813.7524761211</v>
       </c>
       <c r="F2" t="n">
-        <v>311813.7524761207</v>
+        <v>311813.7524761208</v>
       </c>
       <c r="G2" t="n">
         <v>311813.7524761208</v>
       </c>
       <c r="H2" t="n">
-        <v>311813.7524761208</v>
+        <v>311813.7524761209</v>
       </c>
       <c r="I2" t="n">
         <v>311813.7524761208</v>
@@ -26340,19 +26340,19 @@
         <v>311813.7524761208</v>
       </c>
       <c r="K2" t="n">
-        <v>311813.7524761207</v>
+        <v>311813.7524761208</v>
       </c>
       <c r="L2" t="n">
+        <v>311813.7524761209</v>
+      </c>
+      <c r="M2" t="n">
+        <v>311813.7524761209</v>
+      </c>
+      <c r="N2" t="n">
         <v>311813.7524761208</v>
       </c>
-      <c r="M2" t="n">
-        <v>311813.7524761208</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>311813.7524761209</v>
-      </c>
-      <c r="O2" t="n">
-        <v>311813.7524761208</v>
       </c>
       <c r="P2" t="n">
         <v>311813.7524761209</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327801</v>
+        <v>369435.2991327802</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.2452810931</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>61945.21508231327</v>
       </c>
       <c r="F4" t="n">
-        <v>61945.21508231326</v>
+        <v>61945.21508231327</v>
       </c>
       <c r="G4" t="n">
         <v>61945.21508231327</v>
@@ -26450,13 +26450,13 @@
         <v>61945.21508231327</v>
       </c>
       <c r="M4" t="n">
-        <v>61945.21508231326</v>
+        <v>61945.21508231327</v>
       </c>
       <c r="N4" t="n">
         <v>61945.21508231327</v>
       </c>
       <c r="O4" t="n">
-        <v>61945.21508231326</v>
+        <v>61945.21508231327</v>
       </c>
       <c r="P4" t="n">
         <v>61945.21508231327</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="F5" t="n">
         <v>44136.03802033842</v>
@@ -26505,10 +26505,10 @@
         <v>44136.03802033841</v>
       </c>
       <c r="N5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033841</v>
       </c>
       <c r="O5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033841</v>
       </c>
       <c r="P5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5350.207243021177</v>
+        <v>5350.207243021119</v>
       </c>
       <c r="C6" t="n">
         <v>86119.63877456886</v>
       </c>
       <c r="D6" t="n">
-        <v>86119.63877456897</v>
+        <v>86119.63877456886</v>
       </c>
       <c r="E6" t="n">
-        <v>-170671.724333043</v>
+        <v>-164399.692216684</v>
       </c>
       <c r="F6" t="n">
-        <v>198763.5747997368</v>
+        <v>205035.6069160959</v>
       </c>
       <c r="G6" t="n">
-        <v>198763.5747997369</v>
+        <v>205035.6069160958</v>
       </c>
       <c r="H6" t="n">
-        <v>198763.5747997369</v>
+        <v>205035.6069160959</v>
       </c>
       <c r="I6" t="n">
-        <v>198763.5747997369</v>
+        <v>205035.6069160958</v>
       </c>
       <c r="J6" t="n">
-        <v>135703.6322006307</v>
+        <v>141975.6643169897</v>
       </c>
       <c r="K6" t="n">
-        <v>198763.5747997368</v>
+        <v>205035.6069160959</v>
       </c>
       <c r="L6" t="n">
-        <v>198763.5747997369</v>
+        <v>205035.606916096</v>
       </c>
       <c r="M6" t="n">
-        <v>106749.3295186438</v>
+        <v>113021.3616350029</v>
       </c>
       <c r="N6" t="n">
-        <v>198763.574799737</v>
+        <v>205035.6069160959</v>
       </c>
       <c r="O6" t="n">
-        <v>198763.5747997368</v>
+        <v>205035.606916096</v>
       </c>
       <c r="P6" t="n">
-        <v>198763.5747997369</v>
+        <v>205035.606916096</v>
       </c>
     </row>
   </sheetData>
@@ -26776,7 +26776,7 @@
         <v>322.6158759445107</v>
       </c>
       <c r="O3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="P3" t="n">
         <v>322.6158759445108</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="F4" t="n">
         <v>610.2469066570409</v>
@@ -26825,10 +26825,10 @@
         <v>610.2469066570408</v>
       </c>
       <c r="N4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.2469066570408</v>
       </c>
       <c r="O4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.2469066570408</v>
       </c>
       <c r="P4" t="n">
         <v>610.2469066570409</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>160.1841744027037</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.3983415011523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>12.94441648182317</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>162.4565364694636</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>199.8391668911481</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>255.2817600455861</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>50.4005274773215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27754,7 +27754,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>187.0312100772557</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>24.98494807699674</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>332.4421264957783</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.60692865673789</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>119.0254211378609</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27952,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,10 +27991,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28025,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>153.1541244507528</v>
       </c>
       <c r="H10" t="n">
-        <v>147.3903175997337</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31773,7 +31773,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31785,13 +31785,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
@@ -31861,10 +31861,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778304</v>
@@ -31873,7 +31873,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
         <v>10.13860056042011</v>
@@ -31952,7 +31952,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K18" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R18" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P19" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H41" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K41" t="n">
         <v>164.9766803203078</v>
       </c>
       <c r="L41" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M41" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O41" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P41" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q41" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S41" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T41" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H42" t="n">
-        <v>6.701888290847292</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K42" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L42" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34231,19 +34231,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876454</v>
       </c>
       <c r="R42" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T42" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I43" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K43" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L43" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P43" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R43" t="n">
-        <v>26.15832987576312</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S43" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T43" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34786,10 +34786,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N3" t="n">
         <v>55.51629994036225</v>
-      </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
         <v>269.032241846492</v>
@@ -35418,7 +35418,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.45228430891415</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
         <v>528.4798964831782</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
@@ -35740,13 +35740,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
-        <v>385.0071659263357</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L18" t="n">
-        <v>382.95671022767</v>
+        <v>257.7341181179921</v>
       </c>
       <c r="M18" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846579</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009465</v>
+        <v>113.4554389912688</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
@@ -36448,7 +36448,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>33.45228430891373</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009465</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.45228430891365</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.81443304846579</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009465</v>
@@ -36928,10 +36928,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P30" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>33.45228430891365</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.81443304846579</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009465</v>
@@ -37396,7 +37396,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250338</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891365</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009465</v>
@@ -37639,10 +37639,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P39" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926712</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471585</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L41" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M41" t="n">
-        <v>446.9000637909527</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N41" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O41" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P41" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q41" t="n">
         <v>130.0651205780292</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L42" t="n">
-        <v>257.7341181179921</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -37876,7 +37876,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926712</v>
       </c>
       <c r="Q42" t="n">
         <v>158.6748764185921</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M43" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N43" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O43" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.45228430891401</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38110,13 +38110,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O45" t="n">
-        <v>416.3693146658877</v>
+        <v>291.1467225562099</v>
       </c>
       <c r="P45" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
